--- a/Code/Results/Cases/Case_4_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.65849642233985</v>
+        <v>17.05385513254113</v>
       </c>
       <c r="C2">
-        <v>6.188051783775966</v>
+        <v>3.792633579969277</v>
       </c>
       <c r="D2">
-        <v>9.215106929068448</v>
+        <v>13.52141097443091</v>
       </c>
       <c r="E2">
-        <v>8.215592022011521</v>
+        <v>13.51990321559816</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>54.3221280253509</v>
+        <v>66.04962284693244</v>
       </c>
       <c r="H2">
-        <v>16.60649425297572</v>
+        <v>23.56213596488568</v>
       </c>
       <c r="I2">
-        <v>27.76514246406262</v>
+        <v>37.64272558579754</v>
       </c>
       <c r="J2">
-        <v>4.770493286465756</v>
+        <v>8.194841690971835</v>
       </c>
       <c r="K2">
-        <v>11.09894789698703</v>
+        <v>14.61160874003793</v>
       </c>
       <c r="L2">
-        <v>8.241475950154342</v>
+        <v>13.28180907251838</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.92612822054409</v>
+        <v>16.96797328073792</v>
       </c>
       <c r="C3">
-        <v>5.808128767769808</v>
+        <v>3.600829032618984</v>
       </c>
       <c r="D3">
-        <v>9.001760692835122</v>
+        <v>13.51774323250369</v>
       </c>
       <c r="E3">
-        <v>8.168445767361941</v>
+        <v>13.53855695207581</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.19905613270564</v>
+        <v>65.9097632420541</v>
       </c>
       <c r="H3">
-        <v>16.48257863721355</v>
+        <v>23.57497338464936</v>
       </c>
       <c r="I3">
-        <v>27.51367797566865</v>
+        <v>37.64739958468684</v>
       </c>
       <c r="J3">
-        <v>4.789154420337998</v>
+        <v>8.202168788142011</v>
       </c>
       <c r="K3">
-        <v>10.54614805981005</v>
+        <v>14.55800253830981</v>
       </c>
       <c r="L3">
-        <v>8.122076749427428</v>
+        <v>13.29387726346508</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.46381934691588</v>
+        <v>16.91947692858822</v>
       </c>
       <c r="C4">
-        <v>5.563568978073455</v>
+        <v>3.476845375807701</v>
       </c>
       <c r="D4">
-        <v>8.873754136876819</v>
+        <v>13.51784417202443</v>
       </c>
       <c r="E4">
-        <v>8.142939836953714</v>
+        <v>13.55164130923285</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>52.53251230977713</v>
+        <v>65.83519696042465</v>
       </c>
       <c r="H4">
-        <v>16.41420815240128</v>
+        <v>23.58588113656917</v>
       </c>
       <c r="I4">
-        <v>27.37237312934808</v>
+        <v>37.65530467762488</v>
       </c>
       <c r="J4">
-        <v>4.801030790889524</v>
+        <v>8.206920049372266</v>
       </c>
       <c r="K4">
-        <v>10.19919530098637</v>
+        <v>14.52859598485773</v>
       </c>
       <c r="L4">
-        <v>8.052342654070086</v>
+        <v>13.30326923474735</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.27247476738509</v>
+        <v>16.90079771668995</v>
       </c>
       <c r="C5">
-        <v>5.461064585025357</v>
+        <v>3.424781937901391</v>
       </c>
       <c r="D5">
-        <v>8.82238655151845</v>
+        <v>13.51847812263653</v>
       </c>
       <c r="E5">
-        <v>8.13339788393788</v>
+        <v>13.55738374226754</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>52.26674743656504</v>
+        <v>65.8076666362884</v>
       </c>
       <c r="H5">
-        <v>16.38823592496491</v>
+        <v>23.59108682391552</v>
       </c>
       <c r="I5">
-        <v>27.31800161144933</v>
+        <v>37.65979219555511</v>
       </c>
       <c r="J5">
-        <v>4.805977678493192</v>
+        <v>8.208919893642214</v>
       </c>
       <c r="K5">
-        <v>10.05610266395509</v>
+        <v>14.51750502685206</v>
       </c>
       <c r="L5">
-        <v>8.024830256106954</v>
+        <v>13.30759530863419</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.24053148268077</v>
+        <v>16.89776199170627</v>
       </c>
       <c r="C6">
-        <v>5.443871982770596</v>
+        <v>3.416044675794668</v>
       </c>
       <c r="D6">
-        <v>8.813906387553812</v>
+        <v>13.5186192226615</v>
       </c>
       <c r="E6">
-        <v>8.131864495430548</v>
+        <v>13.55836206877732</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>52.2229729411152</v>
+        <v>65.80326806480065</v>
       </c>
       <c r="H6">
-        <v>16.38403587233915</v>
+        <v>23.59199716189938</v>
       </c>
       <c r="I6">
-        <v>27.30916478930084</v>
+        <v>37.66061380740355</v>
       </c>
       <c r="J6">
-        <v>4.806805634287242</v>
+        <v>8.209255817466616</v>
       </c>
       <c r="K6">
-        <v>10.03224527623177</v>
+        <v>14.51571756520667</v>
       </c>
       <c r="L6">
-        <v>8.020316617132824</v>
+        <v>13.30834378307564</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4612504188361</v>
+        <v>16.91922060426366</v>
       </c>
       <c r="C7">
-        <v>5.562198087406039</v>
+        <v>3.476149426894621</v>
       </c>
       <c r="D7">
-        <v>8.873058093293292</v>
+        <v>13.51785032008693</v>
       </c>
       <c r="E7">
-        <v>8.142807719800853</v>
+        <v>13.55171709134864</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>52.52890431337143</v>
+        <v>65.83481409817399</v>
       </c>
       <c r="H7">
-        <v>16.41385029946481</v>
+        <v>23.5859482625966</v>
       </c>
       <c r="I7">
-        <v>27.3716269628329</v>
+        <v>37.65536007174239</v>
       </c>
       <c r="J7">
-        <v>4.80109706986832</v>
+        <v>8.206946761920811</v>
       </c>
       <c r="K7">
-        <v>10.19727214220678</v>
+        <v>14.52844278194616</v>
       </c>
       <c r="L7">
-        <v>8.051967942786272</v>
+        <v>13.30332555778809</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.40871968976801</v>
+        <v>17.02337552501358</v>
       </c>
       <c r="C8">
-        <v>6.059390378085536</v>
+        <v>3.727802023352567</v>
       </c>
       <c r="D8">
-        <v>9.140951379947237</v>
+        <v>13.51965874771927</v>
       </c>
       <c r="E8">
-        <v>8.198613537232832</v>
+        <v>13.52599675264553</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>53.93015512217648</v>
+        <v>65.9990604561123</v>
       </c>
       <c r="H8">
-        <v>16.56213687301631</v>
+        <v>23.56593433983102</v>
       </c>
       <c r="I8">
-        <v>27.67567105891113</v>
+        <v>37.64329220206152</v>
       </c>
       <c r="J8">
-        <v>4.776842029401086</v>
+        <v>8.197315810326897</v>
       </c>
       <c r="K8">
-        <v>10.91000805081257</v>
+        <v>14.59240380915839</v>
       </c>
       <c r="L8">
-        <v>8.199568067476145</v>
+        <v>13.28555905614513</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.15874310466729</v>
+        <v>17.26034717691647</v>
       </c>
       <c r="C9">
-        <v>6.945523879307795</v>
+        <v>4.17116717871981</v>
       </c>
       <c r="D9">
-        <v>9.688113167882504</v>
+        <v>13.54181455247464</v>
       </c>
       <c r="E9">
-        <v>8.335956333377272</v>
+        <v>13.48848372174799</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>56.85780876151064</v>
+        <v>66.4102283917596</v>
       </c>
       <c r="H9">
-        <v>16.9163865587597</v>
+        <v>23.55069428458429</v>
       </c>
       <c r="I9">
-        <v>28.37940644952896</v>
+        <v>37.6595707077254</v>
       </c>
       <c r="J9">
-        <v>4.732503510357073</v>
+        <v>8.180423085445168</v>
       </c>
       <c r="K9">
-        <v>12.30519584971388</v>
+        <v>14.74515980025824</v>
       </c>
       <c r="L9">
-        <v>8.517137768571761</v>
+        <v>13.26642698461285</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.37111504246935</v>
+        <v>17.45311909935694</v>
       </c>
       <c r="C10">
-        <v>7.543848648388389</v>
+        <v>4.465528290717073</v>
       </c>
       <c r="D10">
-        <v>10.10108931900417</v>
+        <v>13.56934246114938</v>
       </c>
       <c r="E10">
-        <v>8.454692058614796</v>
+        <v>13.4687799354629</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>59.11517259222055</v>
+        <v>66.7656247502827</v>
       </c>
       <c r="H10">
-        <v>17.21846574926101</v>
+        <v>23.55412888701071</v>
       </c>
       <c r="I10">
-        <v>28.96694292279073</v>
+        <v>37.69585471992483</v>
       </c>
       <c r="J10">
-        <v>4.701755766573089</v>
+        <v>8.169214657444671</v>
       </c>
       <c r="K10">
-        <v>13.46837418883779</v>
+        <v>14.87330543500975</v>
       </c>
       <c r="L10">
-        <v>8.76726982325728</v>
+        <v>13.26191751644773</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.90582943832766</v>
+        <v>17.54457010862334</v>
       </c>
       <c r="C11">
-        <v>7.805037493907541</v>
+        <v>4.592514417974717</v>
       </c>
       <c r="D11">
-        <v>10.29093540859142</v>
+        <v>13.58428257668566</v>
       </c>
       <c r="E11">
-        <v>8.512756847984114</v>
+        <v>13.4615168813653</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>60.16485404529828</v>
+        <v>66.9386203483209</v>
       </c>
       <c r="H11">
-        <v>17.36566057470301</v>
+        <v>23.55886424356766</v>
       </c>
       <c r="I11">
-        <v>29.25063132888753</v>
+        <v>37.71762949927664</v>
       </c>
       <c r="J11">
-        <v>4.688131989469027</v>
+        <v>8.164374110194768</v>
       </c>
       <c r="K11">
-        <v>13.97314950925388</v>
+        <v>14.93487959507419</v>
       </c>
       <c r="L11">
-        <v>8.884656201585015</v>
+        <v>13.26193070828452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.10586039635464</v>
+        <v>17.57971377724098</v>
       </c>
       <c r="C12">
-        <v>7.902406188498606</v>
+        <v>4.639599096453145</v>
       </c>
       <c r="D12">
-        <v>10.36308269746856</v>
+        <v>13.59028494011341</v>
       </c>
       <c r="E12">
-        <v>8.535341859953123</v>
+        <v>13.45901052193648</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>60.56561745080133</v>
+        <v>67.00573175544567</v>
       </c>
       <c r="H12">
-        <v>17.42286447598338</v>
+        <v>23.56111290522131</v>
       </c>
       <c r="I12">
-        <v>29.36051050661993</v>
+        <v>37.72663069039211</v>
       </c>
       <c r="J12">
-        <v>4.683022412729659</v>
+        <v>8.162578047855598</v>
       </c>
       <c r="K12">
-        <v>14.160880565797</v>
+        <v>14.95865141444407</v>
       </c>
       <c r="L12">
-        <v>8.929621977590569</v>
+        <v>13.26223165347865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.06288960417323</v>
+        <v>17.57212258012322</v>
       </c>
       <c r="C13">
-        <v>7.88150374631547</v>
+        <v>4.629503234912359</v>
       </c>
       <c r="D13">
-        <v>10.34753344863494</v>
+        <v>13.58897693293734</v>
       </c>
       <c r="E13">
-        <v>8.530450974875331</v>
+        <v>13.45953946765948</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>60.4791601055649</v>
+        <v>66.99120732338054</v>
       </c>
       <c r="H13">
-        <v>17.41047849557673</v>
+        <v>23.56060837235314</v>
       </c>
       <c r="I13">
-        <v>29.33673545339177</v>
+        <v>37.72465855769982</v>
       </c>
       <c r="J13">
-        <v>4.68412069918509</v>
+        <v>8.162963221669859</v>
       </c>
       <c r="K13">
-        <v>14.12059982732755</v>
+        <v>14.953511763854</v>
       </c>
       <c r="L13">
-        <v>8.919914957973317</v>
+        <v>13.26215369323942</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.92233540559469</v>
+        <v>17.54745127428788</v>
       </c>
       <c r="C14">
-        <v>7.813078628559294</v>
+        <v>4.596408222482347</v>
       </c>
       <c r="D14">
-        <v>10.2968660026181</v>
+        <v>13.58476950000632</v>
       </c>
       <c r="E14">
-        <v>8.514602876653287</v>
+        <v>13.4613057945245</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>60.19775943639105</v>
+        <v>66.94410970357607</v>
       </c>
       <c r="H14">
-        <v>17.37033707845343</v>
+        <v>23.55904011887799</v>
       </c>
       <c r="I14">
-        <v>29.25962145438864</v>
+        <v>37.71835490393786</v>
       </c>
       <c r="J14">
-        <v>4.687710647297619</v>
+        <v>8.164225607625523</v>
       </c>
       <c r="K14">
-        <v>13.9886622091755</v>
+        <v>14.93682629575158</v>
       </c>
       <c r="L14">
-        <v>8.888345271141326</v>
+        <v>13.26194954172481</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.83592167599713</v>
+        <v>17.53240539082049</v>
       </c>
       <c r="C15">
-        <v>7.770967370603267</v>
+        <v>4.576005876431241</v>
       </c>
       <c r="D15">
-        <v>10.26586343488612</v>
+        <v>13.58223715040909</v>
       </c>
       <c r="E15">
-        <v>8.504973669699305</v>
+        <v>13.46241948138427</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>60.02581987012599</v>
+        <v>66.91546881552303</v>
       </c>
       <c r="H15">
-        <v>17.34594180200528</v>
+        <v>23.55813880946215</v>
       </c>
       <c r="I15">
-        <v>29.21270912653798</v>
+        <v>37.7145920591681</v>
       </c>
       <c r="J15">
-        <v>4.689915947147254</v>
+        <v>8.165003661730323</v>
       </c>
       <c r="K15">
-        <v>13.90740436132793</v>
+        <v>14.9266647146606</v>
       </c>
       <c r="L15">
-        <v>8.869074814165987</v>
+        <v>13.26186300467588</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.33582827963819</v>
+        <v>17.44721587486875</v>
       </c>
       <c r="C16">
-        <v>7.526561671325857</v>
+        <v>4.457089545115733</v>
       </c>
       <c r="D16">
-        <v>10.08871973773218</v>
+        <v>13.56841450596313</v>
       </c>
       <c r="E16">
-        <v>8.450980138303803</v>
+        <v>13.46928876577071</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>59.04703088792262</v>
+        <v>66.7545447213418</v>
       </c>
       <c r="H16">
-        <v>17.20904789176984</v>
+        <v>23.5538832057168</v>
       </c>
       <c r="I16">
-        <v>28.94874127740198</v>
+        <v>37.69453754121698</v>
       </c>
       <c r="J16">
-        <v>4.702653190658043</v>
+        <v>8.169536178909748</v>
       </c>
       <c r="K16">
-        <v>13.4349030130671</v>
+        <v>14.8693460169562</v>
       </c>
       <c r="L16">
-        <v>8.759670428731269</v>
+        <v>13.26195812175929</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.02469867273657</v>
+        <v>17.39589831484617</v>
       </c>
       <c r="C17">
-        <v>7.373839851501902</v>
+        <v>4.3823601139119</v>
       </c>
       <c r="D17">
-        <v>9.980533147945804</v>
+        <v>13.56055206804652</v>
       </c>
       <c r="E17">
-        <v>8.418904626682057</v>
+        <v>13.47393799462478</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>58.45239975267769</v>
+        <v>66.65870509447822</v>
       </c>
       <c r="H17">
-        <v>17.12761277305482</v>
+        <v>23.55208470300903</v>
       </c>
       <c r="I17">
-        <v>28.79107370455488</v>
+        <v>37.68358288990468</v>
       </c>
       <c r="J17">
-        <v>4.710558236924364</v>
+        <v>8.172382736882277</v>
       </c>
       <c r="K17">
-        <v>13.13885929612641</v>
+        <v>14.83501136341948</v>
       </c>
       <c r="L17">
-        <v>8.693473161134236</v>
+        <v>13.26254463342803</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.84416435827248</v>
+        <v>17.36673723642336</v>
       </c>
       <c r="C18">
-        <v>7.284960730754792</v>
+        <v>4.338726644903647</v>
       </c>
       <c r="D18">
-        <v>9.918494870772076</v>
+        <v>13.55625753546683</v>
       </c>
       <c r="E18">
-        <v>8.400836064386043</v>
+        <v>13.47677218066922</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>58.1125278851659</v>
+        <v>66.60464828270771</v>
       </c>
       <c r="H18">
-        <v>17.08169010061878</v>
+        <v>23.55134896253516</v>
       </c>
       <c r="I18">
-        <v>28.70192678740564</v>
+        <v>37.67777816158916</v>
       </c>
       <c r="J18">
-        <v>4.715139407292177</v>
+        <v>8.174044317823732</v>
       </c>
       <c r="K18">
-        <v>12.96628436391559</v>
+        <v>14.81557276314166</v>
       </c>
       <c r="L18">
-        <v>8.655737190635488</v>
+        <v>13.26307637006457</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78276864149971</v>
+        <v>17.35692565588895</v>
       </c>
       <c r="C19">
-        <v>7.254688380854506</v>
+        <v>4.323841527434993</v>
       </c>
       <c r="D19">
-        <v>9.897522993619996</v>
+        <v>13.55484267377527</v>
       </c>
       <c r="E19">
-        <v>8.39478326608217</v>
+        <v>13.47775929448874</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>57.9978220866541</v>
+        <v>66.58652971351195</v>
       </c>
       <c r="H19">
-        <v>17.06629717897218</v>
+        <v>23.55115117795664</v>
       </c>
       <c r="I19">
-        <v>28.67200483115462</v>
+        <v>37.67589804313264</v>
       </c>
       <c r="J19">
-        <v>4.716696503412437</v>
+        <v>8.174611082530555</v>
       </c>
       <c r="K19">
-        <v>12.90745615640011</v>
+        <v>14.80904488719238</v>
       </c>
       <c r="L19">
-        <v>8.643018801391539</v>
+        <v>13.26328982020585</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.05798291752123</v>
+        <v>17.40132456604786</v>
       </c>
       <c r="C20">
-        <v>7.390204444020199</v>
+        <v>4.390382630964633</v>
       </c>
       <c r="D20">
-        <v>9.992030584879391</v>
+        <v>13.56136548757218</v>
       </c>
       <c r="E20">
-        <v>8.422279644230375</v>
+        <v>13.47342651284649</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>58.5154774789651</v>
+        <v>66.66879707902977</v>
       </c>
       <c r="H20">
-        <v>17.13618639717788</v>
+        <v>23.55224524623846</v>
       </c>
       <c r="I20">
-        <v>28.80769772582434</v>
+        <v>37.684697700943</v>
       </c>
       <c r="J20">
-        <v>4.709713191140726</v>
+        <v>8.172077200642608</v>
       </c>
       <c r="K20">
-        <v>13.1706109235557</v>
+        <v>14.83863440248938</v>
       </c>
       <c r="L20">
-        <v>8.700484927223219</v>
+        <v>13.26246208593503</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.96368634587734</v>
+        <v>17.55468412960818</v>
       </c>
       <c r="C21">
-        <v>7.833218109164686</v>
+        <v>4.606156276686857</v>
       </c>
       <c r="D21">
-        <v>10.31174148459553</v>
+        <v>13.58599598899886</v>
       </c>
       <c r="E21">
-        <v>8.519241520998323</v>
+        <v>13.46078036356852</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>60.28032472161695</v>
+        <v>66.95790016894598</v>
       </c>
       <c r="H21">
-        <v>17.38208735965798</v>
+        <v>23.55948839838236</v>
       </c>
       <c r="I21">
-        <v>29.2822043813778</v>
+        <v>37.72018595336069</v>
       </c>
       <c r="J21">
-        <v>4.686654873882537</v>
+        <v>8.163853812977186</v>
       </c>
       <c r="K21">
-        <v>14.02750748676412</v>
+        <v>14.94171500954109</v>
       </c>
       <c r="L21">
-        <v>8.897604116779576</v>
+        <v>13.26200148201445</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.58022524094199</v>
+        <v>17.65789129070478</v>
       </c>
       <c r="C22">
-        <v>8.113813711944255</v>
+        <v>4.741333162162849</v>
       </c>
       <c r="D22">
-        <v>10.52217911512121</v>
+        <v>13.60410210083522</v>
       </c>
       <c r="E22">
-        <v>8.586099705801043</v>
+        <v>13.45393733942394</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>61.45284743330226</v>
+        <v>67.15616796454241</v>
       </c>
       <c r="H22">
-        <v>17.55136332811147</v>
+        <v>23.56687663272654</v>
       </c>
       <c r="I22">
-        <v>29.60666451176454</v>
+        <v>37.74778223915239</v>
       </c>
       <c r="J22">
-        <v>4.671871718493463</v>
+        <v>8.158694629614063</v>
       </c>
       <c r="K22">
-        <v>14.56767006907011</v>
+        <v>15.01172810936613</v>
       </c>
       <c r="L22">
-        <v>9.029429795320963</v>
+        <v>13.26342495444768</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.23433769854957</v>
+        <v>17.60254444502209</v>
       </c>
       <c r="C23">
-        <v>7.964856745358532</v>
+        <v>4.669723274157053</v>
       </c>
       <c r="D23">
-        <v>10.40973596971713</v>
+        <v>13.5942557256945</v>
       </c>
       <c r="E23">
-        <v>8.550092038564051</v>
+        <v>13.45745965634144</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.82529602812057</v>
+        <v>67.04950509266537</v>
       </c>
       <c r="H23">
-        <v>17.46021358731021</v>
+        <v>23.56269082165</v>
       </c>
       <c r="I23">
-        <v>29.43214964346057</v>
+        <v>37.73265155110509</v>
       </c>
       <c r="J23">
-        <v>4.679736510903191</v>
+        <v>8.161428545629974</v>
       </c>
       <c r="K23">
-        <v>14.28116295727227</v>
+        <v>14.9741245723803</v>
       </c>
       <c r="L23">
-        <v>8.95879822017217</v>
+        <v>13.2625077675557</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0429402832713</v>
+        <v>17.39887029027728</v>
       </c>
       <c r="C24">
-        <v>7.382809370489992</v>
+        <v>4.386757739049631</v>
       </c>
       <c r="D24">
-        <v>9.986832094187397</v>
+        <v>13.5609970374153</v>
       </c>
       <c r="E24">
-        <v>8.420752640950127</v>
+        <v>13.47365725134604</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>58.48695384113836</v>
+        <v>66.66423124280739</v>
       </c>
       <c r="H24">
-        <v>17.13230747692156</v>
+        <v>23.55217173549223</v>
       </c>
       <c r="I24">
-        <v>28.80017734591115</v>
+        <v>37.68419215817244</v>
       </c>
       <c r="J24">
-        <v>4.71009512258254</v>
+        <v>8.172215255512995</v>
       </c>
       <c r="K24">
-        <v>13.15626341828467</v>
+        <v>14.83699548812928</v>
       </c>
       <c r="L24">
-        <v>8.697313905376497</v>
+        <v>13.26249879960021</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69779126589944</v>
+        <v>17.19286357738084</v>
       </c>
       <c r="C25">
-        <v>6.715188162209312</v>
+        <v>4.056688749617332</v>
       </c>
       <c r="D25">
-        <v>9.538007696253368</v>
+        <v>13.53383720545311</v>
       </c>
       <c r="E25">
-        <v>8.295729005443716</v>
+        <v>13.49725046209204</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>56.04691893507885</v>
+        <v>66.28955317800106</v>
       </c>
       <c r="H25">
-        <v>16.81343787378148</v>
+        <v>23.55224668036674</v>
       </c>
       <c r="I25">
-        <v>28.17700658463028</v>
+        <v>37.65089180703875</v>
       </c>
       <c r="J25">
-        <v>4.7441667664595</v>
+        <v>8.184780906707525</v>
       </c>
       <c r="K25">
-        <v>11.8890709239905</v>
+        <v>14.70098247045745</v>
       </c>
       <c r="L25">
-        <v>8.42825057297698</v>
+        <v>13.26992363374515</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.05385513254113</v>
+        <v>13.65849642233987</v>
       </c>
       <c r="C2">
-        <v>3.792633579969277</v>
+        <v>6.188051783776198</v>
       </c>
       <c r="D2">
-        <v>13.52141097443091</v>
+        <v>9.215106929068604</v>
       </c>
       <c r="E2">
-        <v>13.51990321559816</v>
+        <v>8.215592022011515</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>66.04962284693244</v>
+        <v>54.32212802535103</v>
       </c>
       <c r="H2">
-        <v>23.56213596488568</v>
+        <v>16.60649425297572</v>
       </c>
       <c r="I2">
-        <v>37.64272558579754</v>
+        <v>27.76514246406269</v>
       </c>
       <c r="J2">
-        <v>8.194841690971835</v>
+        <v>4.770493286465656</v>
       </c>
       <c r="K2">
-        <v>14.61160874003793</v>
+        <v>11.09894789698705</v>
       </c>
       <c r="L2">
-        <v>13.28180907251838</v>
+        <v>8.241475950154316</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.96797328073792</v>
+        <v>12.92612822054409</v>
       </c>
       <c r="C3">
-        <v>3.600829032618984</v>
+        <v>5.80812876776987</v>
       </c>
       <c r="D3">
-        <v>13.51774323250369</v>
+        <v>9.001760692835219</v>
       </c>
       <c r="E3">
-        <v>13.53855695207581</v>
+        <v>8.1684457673619</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>65.9097632420541</v>
+        <v>53.1990561327056</v>
       </c>
       <c r="H3">
-        <v>23.57497338464936</v>
+        <v>16.48257863721351</v>
       </c>
       <c r="I3">
-        <v>37.64739958468684</v>
+        <v>27.51367797566865</v>
       </c>
       <c r="J3">
-        <v>8.202168788142011</v>
+        <v>4.789154420337897</v>
       </c>
       <c r="K3">
-        <v>14.55800253830981</v>
+        <v>10.54614805981003</v>
       </c>
       <c r="L3">
-        <v>13.29387726346508</v>
+        <v>8.122076749427357</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.91947692858822</v>
+        <v>12.46381934691579</v>
       </c>
       <c r="C4">
-        <v>3.476845375807701</v>
+        <v>5.563568978073284</v>
       </c>
       <c r="D4">
-        <v>13.51784417202443</v>
+        <v>8.873754136876745</v>
       </c>
       <c r="E4">
-        <v>13.55164130923285</v>
+        <v>8.142939836953722</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>65.83519696042465</v>
+        <v>52.5325123097772</v>
       </c>
       <c r="H4">
-        <v>23.58588113656917</v>
+        <v>16.41420815240135</v>
       </c>
       <c r="I4">
-        <v>37.65530467762488</v>
+        <v>27.37237312934806</v>
       </c>
       <c r="J4">
-        <v>8.206920049372266</v>
+        <v>4.801030790889556</v>
       </c>
       <c r="K4">
-        <v>14.52859598485773</v>
+        <v>10.19919530098633</v>
       </c>
       <c r="L4">
-        <v>13.30326923474735</v>
+        <v>8.052342654070129</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.90079771668995</v>
+        <v>12.27247476738509</v>
       </c>
       <c r="C5">
-        <v>3.424781937901391</v>
+        <v>5.46106458502526</v>
       </c>
       <c r="D5">
-        <v>13.51847812263653</v>
+        <v>8.822386551518397</v>
       </c>
       <c r="E5">
-        <v>13.55738374226754</v>
+        <v>8.13339788393788</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>65.8076666362884</v>
+        <v>52.26674743656486</v>
       </c>
       <c r="H5">
-        <v>23.59108682391552</v>
+        <v>16.38823592496494</v>
       </c>
       <c r="I5">
-        <v>37.65979219555511</v>
+        <v>27.3180016114493</v>
       </c>
       <c r="J5">
-        <v>8.208919893642214</v>
+        <v>4.805977678493291</v>
       </c>
       <c r="K5">
-        <v>14.51750502685206</v>
+        <v>10.05610266395509</v>
       </c>
       <c r="L5">
-        <v>13.30759530863419</v>
+        <v>8.024830256107029</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.89776199170627</v>
+        <v>12.24053148268078</v>
       </c>
       <c r="C6">
-        <v>3.416044675794668</v>
+        <v>5.443871982770596</v>
       </c>
       <c r="D6">
-        <v>13.5186192226615</v>
+        <v>8.813906387553812</v>
       </c>
       <c r="E6">
-        <v>13.55836206877732</v>
+        <v>8.131864495430495</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>65.80326806480065</v>
+        <v>52.22297294111524</v>
       </c>
       <c r="H6">
-        <v>23.59199716189938</v>
+        <v>16.38403587233917</v>
       </c>
       <c r="I6">
-        <v>37.66061380740355</v>
+        <v>27.30916478930087</v>
       </c>
       <c r="J6">
-        <v>8.209255817466616</v>
+        <v>4.806805634287177</v>
       </c>
       <c r="K6">
-        <v>14.51571756520667</v>
+        <v>10.03224527623179</v>
       </c>
       <c r="L6">
-        <v>13.30834378307564</v>
+        <v>8.020316617132753</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.91922060426366</v>
+        <v>12.46125041883604</v>
       </c>
       <c r="C7">
-        <v>3.476149426894621</v>
+        <v>5.562198087406034</v>
       </c>
       <c r="D7">
-        <v>13.51785032008693</v>
+        <v>8.87305809329343</v>
       </c>
       <c r="E7">
-        <v>13.55171709134864</v>
+        <v>8.14280771980097</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>65.83481409817399</v>
+        <v>52.52890431337131</v>
       </c>
       <c r="H7">
-        <v>23.5859482625966</v>
+        <v>16.41385029946468</v>
       </c>
       <c r="I7">
-        <v>37.65536007174239</v>
+        <v>27.37162696283276</v>
       </c>
       <c r="J7">
-        <v>8.206946761920811</v>
+        <v>4.801097069868323</v>
       </c>
       <c r="K7">
-        <v>14.52844278194616</v>
+        <v>10.19727214220672</v>
       </c>
       <c r="L7">
-        <v>13.30332555778809</v>
+        <v>8.05196794278635</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.02337552501358</v>
+        <v>13.40871968976798</v>
       </c>
       <c r="C8">
-        <v>3.727802023352567</v>
+        <v>6.059390378085464</v>
       </c>
       <c r="D8">
-        <v>13.51965874771927</v>
+        <v>9.140951379947069</v>
       </c>
       <c r="E8">
-        <v>13.52599675264553</v>
+        <v>8.198613537232786</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>65.9990604561123</v>
+        <v>53.93015512217587</v>
       </c>
       <c r="H8">
-        <v>23.56593433983102</v>
+        <v>16.56213687301607</v>
       </c>
       <c r="I8">
-        <v>37.64329220206152</v>
+        <v>27.67567105891079</v>
       </c>
       <c r="J8">
-        <v>8.197315810326897</v>
+        <v>4.776842029401116</v>
       </c>
       <c r="K8">
-        <v>14.59240380915839</v>
+        <v>10.91000805081253</v>
       </c>
       <c r="L8">
-        <v>13.28555905614513</v>
+        <v>8.19956806747606</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.26034717691647</v>
+        <v>15.15874310466728</v>
       </c>
       <c r="C9">
-        <v>4.17116717871981</v>
+        <v>6.945523879307775</v>
       </c>
       <c r="D9">
-        <v>13.54181455247464</v>
+        <v>9.688113167882474</v>
       </c>
       <c r="E9">
-        <v>13.48848372174799</v>
+        <v>8.33595633337727</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>66.4102283917596</v>
+        <v>56.85780876151041</v>
       </c>
       <c r="H9">
-        <v>23.55069428458429</v>
+        <v>16.91638655875965</v>
       </c>
       <c r="I9">
-        <v>37.6595707077254</v>
+        <v>28.37940644952885</v>
       </c>
       <c r="J9">
-        <v>8.180423085445168</v>
+        <v>4.732503510357007</v>
       </c>
       <c r="K9">
-        <v>14.74515980025824</v>
+        <v>12.30519584971391</v>
       </c>
       <c r="L9">
-        <v>13.26642698461285</v>
+        <v>8.517137768571729</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.45311909935694</v>
+        <v>16.37111504246934</v>
       </c>
       <c r="C10">
-        <v>4.465528290717073</v>
+        <v>7.543848648388455</v>
       </c>
       <c r="D10">
-        <v>13.56934246114938</v>
+        <v>10.10108931900402</v>
       </c>
       <c r="E10">
-        <v>13.4687799354629</v>
+        <v>8.454692058614595</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>66.7656247502827</v>
+        <v>59.1151725922205</v>
       </c>
       <c r="H10">
-        <v>23.55412888701071</v>
+        <v>17.21846574926096</v>
       </c>
       <c r="I10">
-        <v>37.69585471992483</v>
+        <v>28.96694292279062</v>
       </c>
       <c r="J10">
-        <v>8.169214657444671</v>
+        <v>4.701755766572957</v>
       </c>
       <c r="K10">
-        <v>14.87330543500975</v>
+        <v>13.46837418883787</v>
       </c>
       <c r="L10">
-        <v>13.26191751644773</v>
+        <v>8.767269823257157</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.54457010862334</v>
+        <v>16.90582943832766</v>
       </c>
       <c r="C11">
-        <v>4.592514417974717</v>
+        <v>7.805037493907528</v>
       </c>
       <c r="D11">
-        <v>13.58428257668566</v>
+        <v>10.2909354085914</v>
       </c>
       <c r="E11">
-        <v>13.4615168813653</v>
+        <v>8.512756847984063</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>66.9386203483209</v>
+        <v>60.1648540452986</v>
       </c>
       <c r="H11">
-        <v>23.55886424356766</v>
+        <v>17.36566057470309</v>
       </c>
       <c r="I11">
-        <v>37.71762949927664</v>
+        <v>29.25063132888767</v>
       </c>
       <c r="J11">
-        <v>8.164374110194768</v>
+        <v>4.688131989469027</v>
       </c>
       <c r="K11">
-        <v>14.93487959507419</v>
+        <v>13.97314950925385</v>
       </c>
       <c r="L11">
-        <v>13.26193070828452</v>
+        <v>8.884656201585045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.57971377724098</v>
+        <v>17.10586039635465</v>
       </c>
       <c r="C12">
-        <v>4.639599096453145</v>
+        <v>7.902406188498594</v>
       </c>
       <c r="D12">
-        <v>13.59028494011341</v>
+        <v>10.36308269746855</v>
       </c>
       <c r="E12">
-        <v>13.45901052193648</v>
+        <v>8.535341859953078</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>67.00573175544567</v>
+        <v>60.56561745080133</v>
       </c>
       <c r="H12">
-        <v>23.56111290522131</v>
+        <v>17.42286447598338</v>
       </c>
       <c r="I12">
-        <v>37.72663069039211</v>
+        <v>29.36051050661992</v>
       </c>
       <c r="J12">
-        <v>8.162578047855598</v>
+        <v>4.683022412729594</v>
       </c>
       <c r="K12">
-        <v>14.95865141444407</v>
+        <v>14.16088056579698</v>
       </c>
       <c r="L12">
-        <v>13.26223165347865</v>
+        <v>8.929621977590566</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.57212258012322</v>
+        <v>17.06288960417323</v>
       </c>
       <c r="C13">
-        <v>4.629503234912359</v>
+        <v>7.881503746315456</v>
       </c>
       <c r="D13">
-        <v>13.58897693293734</v>
+        <v>10.34753344863488</v>
       </c>
       <c r="E13">
-        <v>13.45953946765948</v>
+        <v>8.530450974875253</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>66.99120732338054</v>
+        <v>60.4791601055648</v>
       </c>
       <c r="H13">
-        <v>23.56060837235314</v>
+        <v>17.41047849557665</v>
       </c>
       <c r="I13">
-        <v>37.72465855769982</v>
+        <v>29.33673545339166</v>
       </c>
       <c r="J13">
-        <v>8.162963221669859</v>
+        <v>4.684120699185092</v>
       </c>
       <c r="K13">
-        <v>14.953511763854</v>
+        <v>14.12059982732756</v>
       </c>
       <c r="L13">
-        <v>13.26215369323942</v>
+        <v>8.919914957973347</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.54745127428788</v>
+        <v>16.92233540559472</v>
       </c>
       <c r="C14">
-        <v>4.596408222482347</v>
+        <v>7.813078628559348</v>
       </c>
       <c r="D14">
-        <v>13.58476950000632</v>
+        <v>10.29686600261811</v>
       </c>
       <c r="E14">
-        <v>13.4613057945245</v>
+        <v>8.514602876653241</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>66.94410970357607</v>
+        <v>60.19775943639115</v>
       </c>
       <c r="H14">
-        <v>23.55904011887799</v>
+        <v>17.37033707845354</v>
       </c>
       <c r="I14">
-        <v>37.71835490393786</v>
+        <v>29.25962145438872</v>
       </c>
       <c r="J14">
-        <v>8.164225607625523</v>
+        <v>4.687710647297585</v>
       </c>
       <c r="K14">
-        <v>14.93682629575158</v>
+        <v>13.98866220917549</v>
       </c>
       <c r="L14">
-        <v>13.26194954172481</v>
+        <v>8.888345271141244</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.53240539082049</v>
+        <v>16.83592167599713</v>
       </c>
       <c r="C15">
-        <v>4.576005876431241</v>
+        <v>7.770967370603334</v>
       </c>
       <c r="D15">
-        <v>13.58223715040909</v>
+        <v>10.26586343488625</v>
       </c>
       <c r="E15">
-        <v>13.46241948138427</v>
+        <v>8.504973669699371</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>66.91546881552303</v>
+        <v>60.02581987012605</v>
       </c>
       <c r="H15">
-        <v>23.55813880946215</v>
+        <v>17.34594180200533</v>
       </c>
       <c r="I15">
-        <v>37.7145920591681</v>
+        <v>29.21270912653802</v>
       </c>
       <c r="J15">
-        <v>8.165003661730323</v>
+        <v>4.689915947147155</v>
       </c>
       <c r="K15">
-        <v>14.9266647146606</v>
+        <v>13.90740436132795</v>
       </c>
       <c r="L15">
-        <v>13.26186300467588</v>
+        <v>8.869074814166</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.44721587486875</v>
+        <v>16.33582827963818</v>
       </c>
       <c r="C16">
-        <v>4.457089545115733</v>
+        <v>7.526561671325763</v>
       </c>
       <c r="D16">
-        <v>13.56841450596313</v>
+        <v>10.08871973773214</v>
       </c>
       <c r="E16">
-        <v>13.46928876577071</v>
+        <v>8.450980138303665</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>66.7545447213418</v>
+        <v>59.04703088792258</v>
       </c>
       <c r="H16">
-        <v>23.5538832057168</v>
+        <v>17.20904789176981</v>
       </c>
       <c r="I16">
-        <v>37.69453754121698</v>
+        <v>28.94874127740194</v>
       </c>
       <c r="J16">
-        <v>8.169536178909748</v>
+        <v>4.702653190657912</v>
       </c>
       <c r="K16">
-        <v>14.8693460169562</v>
+        <v>13.43490301306708</v>
       </c>
       <c r="L16">
-        <v>13.26195812175929</v>
+        <v>8.759670428731178</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.39589831484617</v>
+        <v>16.02469867273659</v>
       </c>
       <c r="C17">
-        <v>4.3823601139119</v>
+        <v>7.373839851501902</v>
       </c>
       <c r="D17">
-        <v>13.56055206804652</v>
+        <v>9.980533147945859</v>
       </c>
       <c r="E17">
-        <v>13.47393799462478</v>
+        <v>8.418904626682114</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>66.65870509447822</v>
+        <v>58.45239975267792</v>
       </c>
       <c r="H17">
-        <v>23.55208470300903</v>
+        <v>17.12761277305489</v>
       </c>
       <c r="I17">
-        <v>37.68358288990468</v>
+        <v>28.791073704555</v>
       </c>
       <c r="J17">
-        <v>8.172382736882277</v>
+        <v>4.710558236924368</v>
       </c>
       <c r="K17">
-        <v>14.83501136341948</v>
+        <v>13.1388592961264</v>
       </c>
       <c r="L17">
-        <v>13.26254463342803</v>
+        <v>8.693473161134277</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.36673723642336</v>
+        <v>15.8441643582725</v>
       </c>
       <c r="C18">
-        <v>4.338726644903647</v>
+        <v>7.284960730754632</v>
       </c>
       <c r="D18">
-        <v>13.55625753546683</v>
+        <v>9.918494870772031</v>
       </c>
       <c r="E18">
-        <v>13.47677218066922</v>
+        <v>8.400836064386043</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>66.60464828270771</v>
+        <v>58.11252788516601</v>
       </c>
       <c r="H18">
-        <v>23.55134896253516</v>
+        <v>17.08169010061884</v>
       </c>
       <c r="I18">
-        <v>37.67777816158916</v>
+        <v>28.70192678740571</v>
       </c>
       <c r="J18">
-        <v>8.174044317823732</v>
+        <v>4.715139407292244</v>
       </c>
       <c r="K18">
-        <v>14.81557276314166</v>
+        <v>12.96628436391555</v>
       </c>
       <c r="L18">
-        <v>13.26307637006457</v>
+        <v>8.655737190635506</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.35692565588895</v>
+        <v>15.78276864149972</v>
       </c>
       <c r="C19">
-        <v>4.323841527434993</v>
+        <v>7.254688380854677</v>
       </c>
       <c r="D19">
-        <v>13.55484267377527</v>
+        <v>9.897522993620049</v>
       </c>
       <c r="E19">
-        <v>13.47775929448874</v>
+        <v>8.394783266082209</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>66.58652971351195</v>
+        <v>57.99782208665432</v>
       </c>
       <c r="H19">
-        <v>23.55115117795664</v>
+        <v>17.06629717897226</v>
       </c>
       <c r="I19">
-        <v>37.67589804313264</v>
+        <v>28.67200483115482</v>
       </c>
       <c r="J19">
-        <v>8.174611082530555</v>
+        <v>4.716696503412505</v>
       </c>
       <c r="K19">
-        <v>14.80904488719238</v>
+        <v>12.9074561564001</v>
       </c>
       <c r="L19">
-        <v>13.26328982020585</v>
+        <v>8.643018801391522</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.40132456604786</v>
+        <v>16.05798291752122</v>
       </c>
       <c r="C20">
-        <v>4.390382630964633</v>
+        <v>7.390204444020318</v>
       </c>
       <c r="D20">
-        <v>13.56136548757218</v>
+        <v>9.992030584879423</v>
       </c>
       <c r="E20">
-        <v>13.47342651284649</v>
+        <v>8.422279644230372</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>66.66879707902977</v>
+        <v>58.51547747896508</v>
       </c>
       <c r="H20">
-        <v>23.55224524623846</v>
+        <v>17.13618639717781</v>
       </c>
       <c r="I20">
-        <v>37.684697700943</v>
+        <v>28.8076977258243</v>
       </c>
       <c r="J20">
-        <v>8.172077200642608</v>
+        <v>4.709713191140661</v>
       </c>
       <c r="K20">
-        <v>14.83863440248938</v>
+        <v>13.17061092355581</v>
       </c>
       <c r="L20">
-        <v>13.26246208593503</v>
+        <v>8.700484927223167</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.55468412960818</v>
+        <v>16.96368634587735</v>
       </c>
       <c r="C21">
-        <v>4.606156276686857</v>
+        <v>7.833218109164659</v>
       </c>
       <c r="D21">
-        <v>13.58599598899886</v>
+        <v>10.31174148459554</v>
       </c>
       <c r="E21">
-        <v>13.46078036356852</v>
+        <v>8.51924152099833</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>66.95790016894598</v>
+        <v>60.28032472161726</v>
       </c>
       <c r="H21">
-        <v>23.55948839838236</v>
+        <v>17.38208735965803</v>
       </c>
       <c r="I21">
-        <v>37.72018595336069</v>
+        <v>29.28220438137791</v>
       </c>
       <c r="J21">
-        <v>8.163853812977186</v>
+        <v>4.68665487388254</v>
       </c>
       <c r="K21">
-        <v>14.94171500954109</v>
+        <v>14.02750748676406</v>
       </c>
       <c r="L21">
-        <v>13.26200148201445</v>
+        <v>8.897604116779561</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.65789129070478</v>
+        <v>17.58022524094194</v>
       </c>
       <c r="C22">
-        <v>4.741333162162849</v>
+        <v>8.113813711944257</v>
       </c>
       <c r="D22">
-        <v>13.60410210083522</v>
+        <v>10.52217911512125</v>
       </c>
       <c r="E22">
-        <v>13.45393733942394</v>
+        <v>8.586099705801042</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>67.15616796454241</v>
+        <v>61.45284743330259</v>
       </c>
       <c r="H22">
-        <v>23.56687663272654</v>
+        <v>17.55136332811155</v>
       </c>
       <c r="I22">
-        <v>37.74778223915239</v>
+        <v>29.60666451176476</v>
       </c>
       <c r="J22">
-        <v>8.158694629614063</v>
+        <v>4.671871718493431</v>
       </c>
       <c r="K22">
-        <v>15.01172810936613</v>
+        <v>14.56767006907004</v>
       </c>
       <c r="L22">
-        <v>13.26342495444768</v>
+        <v>9.029429795321009</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.60254444502209</v>
+        <v>17.2343376985496</v>
       </c>
       <c r="C23">
-        <v>4.669723274157053</v>
+        <v>7.964856745358626</v>
       </c>
       <c r="D23">
-        <v>13.5942557256945</v>
+        <v>10.40973596971719</v>
       </c>
       <c r="E23">
-        <v>13.45745965634144</v>
+        <v>8.55009203856412</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>67.04950509266537</v>
+        <v>60.82529602812045</v>
       </c>
       <c r="H23">
-        <v>23.56269082165</v>
+        <v>17.46021358731019</v>
       </c>
       <c r="I23">
-        <v>37.73265155110509</v>
+        <v>29.43214964346053</v>
       </c>
       <c r="J23">
-        <v>8.161428545629974</v>
+        <v>4.679736510903189</v>
       </c>
       <c r="K23">
-        <v>14.9741245723803</v>
+        <v>14.28116295727228</v>
       </c>
       <c r="L23">
-        <v>13.2625077675557</v>
+        <v>8.958798220172209</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.39887029027728</v>
+        <v>16.0429402832713</v>
       </c>
       <c r="C24">
-        <v>4.386757739049631</v>
+        <v>7.382809370489967</v>
       </c>
       <c r="D24">
-        <v>13.5609970374153</v>
+        <v>9.986832094187408</v>
       </c>
       <c r="E24">
-        <v>13.47365725134604</v>
+        <v>8.420752640950093</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>66.66423124280739</v>
+        <v>58.48695384113825</v>
       </c>
       <c r="H24">
-        <v>23.55217173549223</v>
+        <v>17.1323074769216</v>
       </c>
       <c r="I24">
-        <v>37.68419215817244</v>
+        <v>28.80017734591119</v>
       </c>
       <c r="J24">
-        <v>8.172215255512995</v>
+        <v>4.710095122582476</v>
       </c>
       <c r="K24">
-        <v>14.83699548812928</v>
+        <v>13.15626341828471</v>
       </c>
       <c r="L24">
-        <v>13.26249879960021</v>
+        <v>8.697313905376456</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.19286357738084</v>
+        <v>14.69779126589945</v>
       </c>
       <c r="C25">
-        <v>4.056688749617332</v>
+        <v>6.715188162209047</v>
       </c>
       <c r="D25">
-        <v>13.53383720545311</v>
+        <v>9.538007696253405</v>
       </c>
       <c r="E25">
-        <v>13.49725046209204</v>
+        <v>8.295729005443668</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>66.28955317800106</v>
+        <v>56.04691893507903</v>
       </c>
       <c r="H25">
-        <v>23.55224668036674</v>
+        <v>16.81343787378164</v>
       </c>
       <c r="I25">
-        <v>37.65089180703875</v>
+        <v>28.1770065846304</v>
       </c>
       <c r="J25">
-        <v>8.184780906707525</v>
+        <v>4.744166766459467</v>
       </c>
       <c r="K25">
-        <v>14.70098247045745</v>
+        <v>11.88907092399052</v>
       </c>
       <c r="L25">
-        <v>13.26992363374515</v>
+        <v>8.428250572976994</v>
       </c>
       <c r="M25">
         <v>0</v>
